--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20181231-dayton/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CA0B4-497F-0E42-A2A3-F0E9AB9608D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC4A41B-A747-9B42-9D50-6EA4A8817BB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2980" windowWidth="27680" windowHeight="16300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,9 +1709,6 @@
     <t>&lt;span class='legendary gray5'&gt;Population&lt;/span&gt; growth in Greater Minnesota's rural and outstate areas has been more stagnant than the metro area the last couple decades.</t>
   </si>
   <si>
-    <t>The percentage of Minnesota's &lt;span class='legendary gray5'&gt;foreign-born population&lt;/span&gt; has steadily increased over the years.</t>
-  </si>
-  <si>
     <t>The percentage of Minnesotans with &lt;span class='legendary gray5'&gt;health insurance from a public provider&lt;/span&gt; has increased in the passage of the Affordable Care Act.</t>
   </si>
   <si>
@@ -1848,6 +1845,9 @@
   </si>
   <si>
     <t>Minnesota Management and Budget | Note: uses November forecasts from each year</t>
+  </si>
+  <si>
+    <t>Minnesota's &lt;span class='legendary gray5'&gt;foreign-born population&lt;/span&gt; has steadily increased over the years.</t>
   </si>
 </sst>
 </file>
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057D5170-42ED-8E46-8462-E14FB6A324D8}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3445,7 +3445,7 @@
         <v>330</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>373</v>
@@ -3585,7 +3585,7 @@
         <v>539</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>110</v>
@@ -3719,7 +3719,7 @@
         <v>498</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>387</v>
@@ -4121,7 +4121,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>399</v>
@@ -4256,7 +4256,7 @@
         <v>351</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>40</v>
@@ -4385,10 +4385,10 @@
         <v>300</v>
       </c>
       <c r="D9" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>571</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>572</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>397</v>
@@ -4789,7 +4789,7 @@
         <v>402</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>401</v>
@@ -4918,13 +4918,13 @@
         <v>289</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>410</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>37</v>
@@ -5058,7 +5058,7 @@
         <v>352</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G14" s="48" t="s">
         <v>139</v>
@@ -5193,7 +5193,7 @@
         <v>423</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G15" s="59" t="s">
         <v>403</v>
@@ -5461,7 +5461,7 @@
         <v>414</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>34</v>
@@ -5592,10 +5592,10 @@
         <v>311</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>34</v>
@@ -5729,7 +5729,7 @@
         <v>523</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>40</v>
@@ -5863,7 +5863,7 @@
         <v>526</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>40</v>
@@ -5991,13 +5991,13 @@
         <v>293</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>396</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G21" s="48" t="s">
         <v>393</v>
@@ -6132,7 +6132,7 @@
         <v>407</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G22" s="48" t="s">
         <v>405</v>
@@ -6397,10 +6397,10 @@
         <v>307</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G24" s="48" t="s">
         <v>34</v>
@@ -6532,7 +6532,7 @@
         <v>493</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>495</v>
@@ -6562,7 +6562,7 @@
         <v>358</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P25" s="48">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>409</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>405</v>
@@ -6803,7 +6803,7 @@
         <v>531</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>533</v>
@@ -6937,7 +6937,7 @@
         <v>413</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G28" s="59" t="s">
         <v>34</v>
@@ -7072,7 +7072,7 @@
         <v>445</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G29" s="48" t="s">
         <v>446</v>
@@ -7206,7 +7206,7 @@
         <v>382</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>175</v>
@@ -7337,10 +7337,10 @@
         <v>310</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G31" s="48" t="s">
         <v>34</v>
@@ -7468,7 +7468,7 @@
         <v>299</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>395</v>
@@ -7606,10 +7606,10 @@
         <v>298</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G33" s="48" t="s">
         <v>35</v>
@@ -7744,7 +7744,7 @@
         <v>456</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G34" s="48" t="s">
         <v>387</v>
@@ -8006,13 +8006,13 @@
         <v>430</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>431</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>40</v>
@@ -8146,7 +8146,7 @@
         <v>547</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>40</v>
@@ -8411,7 +8411,7 @@
         <v>425</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>426</v>
@@ -8682,7 +8682,7 @@
         <v>404</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G41" s="59" t="s">
         <v>97</v>
@@ -8813,10 +8813,10 @@
         <v>290</v>
       </c>
       <c r="E42" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="F42" s="48" t="s">
         <v>562</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>563</v>
       </c>
       <c r="G42" s="48" t="s">
         <v>40</v>
@@ -8950,7 +8950,7 @@
         <v>421</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G43" s="48" t="s">
         <v>403</v>
@@ -9082,7 +9082,7 @@
         <v>285</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>398</v>
@@ -9354,7 +9354,7 @@
         <v>384</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G46" s="48" t="s">
         <v>385</v>
@@ -9758,7 +9758,7 @@
         <v>353</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G49" s="48" t="s">
         <v>38</v>
@@ -10298,7 +10298,7 @@
         <v>416</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H53" s="59" t="s">
         <v>227</v>
